--- a/colour_card.xlsx
+++ b/colour_card.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\MPLABXProjects\final-project-tues-amanda-sara.X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\MPLABXProjects\final-project-tues-amanda-sara-v2.X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C736D0F-F398-48C3-8271-A7462E55F17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A9F33C-AABB-4122-AF4D-F972CDA13632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1992" yWindow="1392" windowWidth="14052" windowHeight="8964" xr2:uid="{6E186DC1-13DA-45E0-8EFC-473B9AA2EAFD}"/>
+    <workbookView xWindow="2688" yWindow="1272" windowWidth="10548" windowHeight="10968" activeTab="1" xr2:uid="{6E186DC1-13DA-45E0-8EFC-473B9AA2EAFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="11" r:id="rId1"/>
-    <sheet name="Red" sheetId="1" r:id="rId2"/>
-    <sheet name="Green" sheetId="2" r:id="rId3"/>
-    <sheet name="Blue" sheetId="3" r:id="rId4"/>
-    <sheet name="Yellow" sheetId="4" r:id="rId5"/>
-    <sheet name="Pink" sheetId="5" r:id="rId6"/>
-    <sheet name="Orange" sheetId="6" r:id="rId7"/>
-    <sheet name="Light blue" sheetId="7" r:id="rId8"/>
-    <sheet name="White" sheetId="9" r:id="rId9"/>
-    <sheet name="Black" sheetId="10" r:id="rId10"/>
+    <sheet name="Motor" sheetId="12" r:id="rId2"/>
+    <sheet name="Red" sheetId="1" r:id="rId3"/>
+    <sheet name="Green" sheetId="2" r:id="rId4"/>
+    <sheet name="Blue" sheetId="3" r:id="rId5"/>
+    <sheet name="Yellow" sheetId="4" r:id="rId6"/>
+    <sheet name="Pink" sheetId="5" r:id="rId7"/>
+    <sheet name="Orange" sheetId="6" r:id="rId8"/>
+    <sheet name="Light blue" sheetId="7" r:id="rId9"/>
+    <sheet name="White" sheetId="9" r:id="rId10"/>
+    <sheet name="Black" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="32">
   <si>
     <t>Red</t>
   </si>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>CHECK THIS</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
   </si>
 </sst>
 </file>
@@ -1077,6 +1084,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,13 +1102,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,9 +1123,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,6 +1143,1969 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-MY"/>
+              <a:t>Left</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB57-4316-88EE-9FDE9F8EAA17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1546288064"/>
+        <c:axId val="1546289728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1546288064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546289728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546289728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546288064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-MY"/>
+              <a:t>Right</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Motor!$A$8:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Motor!$B$8:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5723-4C1D-861C-A82E11DEA347}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1546107072"/>
+        <c:axId val="1546115808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1546107072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546115808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1546115808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1546107072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E4F5A8-E822-4A04-9A44-35395678AD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E0299E7-6862-4834-A292-EC85DC50E36A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1437,7 +3407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2FEA12-4C35-4C0A-8D00-EC0C3886510F}">
   <dimension ref="B2:AR37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -1458,57 +3428,57 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="247"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="250"/>
+      <c r="C3" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="251"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="249" t="s">
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="253"/>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="254"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="251"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="249" t="s">
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="253"/>
+      <c r="T3" s="253"/>
+      <c r="U3" s="253"/>
+      <c r="V3" s="254"/>
+      <c r="X3" s="250"/>
+      <c r="Y3" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="250"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="250"/>
-      <c r="AC3" s="250"/>
-      <c r="AD3" s="250"/>
-      <c r="AE3" s="250"/>
-      <c r="AF3" s="250"/>
-      <c r="AG3" s="251"/>
-      <c r="AI3" s="247"/>
-      <c r="AJ3" s="249" t="s">
+      <c r="Z3" s="253"/>
+      <c r="AA3" s="253"/>
+      <c r="AB3" s="253"/>
+      <c r="AC3" s="253"/>
+      <c r="AD3" s="253"/>
+      <c r="AE3" s="253"/>
+      <c r="AF3" s="253"/>
+      <c r="AG3" s="254"/>
+      <c r="AI3" s="250"/>
+      <c r="AJ3" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="250"/>
-      <c r="AL3" s="250"/>
-      <c r="AM3" s="250"/>
-      <c r="AN3" s="250"/>
-      <c r="AO3" s="250"/>
-      <c r="AP3" s="250"/>
-      <c r="AQ3" s="250"/>
-      <c r="AR3" s="251"/>
+      <c r="AK3" s="253"/>
+      <c r="AL3" s="253"/>
+      <c r="AM3" s="253"/>
+      <c r="AN3" s="253"/>
+      <c r="AO3" s="253"/>
+      <c r="AP3" s="253"/>
+      <c r="AQ3" s="253"/>
+      <c r="AR3" s="254"/>
     </row>
     <row r="4" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="248"/>
+      <c r="B4" s="251"/>
       <c r="C4" s="200" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +3506,7 @@
       <c r="K4" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="248"/>
+      <c r="M4" s="251"/>
       <c r="N4" s="200" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +3534,7 @@
       <c r="V4" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="248"/>
+      <c r="X4" s="251"/>
       <c r="Y4" s="200" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +3562,7 @@
       <c r="AG4" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="248"/>
+      <c r="AI4" s="251"/>
       <c r="AJ4" s="200" t="s">
         <v>0</v>
       </c>
@@ -1998,57 +3968,57 @@
       </c>
     </row>
     <row r="13" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="247"/>
-      <c r="C13" s="249" t="s">
+      <c r="B13" s="250"/>
+      <c r="C13" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="250"/>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="250"/>
-      <c r="I13" s="250"/>
-      <c r="J13" s="250"/>
-      <c r="K13" s="251"/>
-      <c r="M13" s="247"/>
-      <c r="N13" s="249" t="s">
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="254"/>
+      <c r="M13" s="250"/>
+      <c r="N13" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="250"/>
-      <c r="P13" s="250"/>
-      <c r="Q13" s="250"/>
-      <c r="R13" s="250"/>
-      <c r="S13" s="250"/>
-      <c r="T13" s="250"/>
-      <c r="U13" s="250"/>
-      <c r="V13" s="251"/>
-      <c r="X13" s="247"/>
-      <c r="Y13" s="249" t="s">
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
+      <c r="Q13" s="253"/>
+      <c r="R13" s="253"/>
+      <c r="S13" s="253"/>
+      <c r="T13" s="253"/>
+      <c r="U13" s="253"/>
+      <c r="V13" s="254"/>
+      <c r="X13" s="250"/>
+      <c r="Y13" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="250"/>
-      <c r="AA13" s="250"/>
-      <c r="AB13" s="250"/>
-      <c r="AC13" s="250"/>
-      <c r="AD13" s="250"/>
-      <c r="AE13" s="250"/>
-      <c r="AF13" s="250"/>
-      <c r="AG13" s="251"/>
-      <c r="AI13" s="247"/>
-      <c r="AJ13" s="249" t="s">
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="254"/>
+      <c r="AI13" s="250"/>
+      <c r="AJ13" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="AK13" s="250"/>
-      <c r="AL13" s="250"/>
-      <c r="AM13" s="250"/>
-      <c r="AN13" s="250"/>
-      <c r="AO13" s="250"/>
-      <c r="AP13" s="250"/>
-      <c r="AQ13" s="250"/>
-      <c r="AR13" s="251"/>
+      <c r="AK13" s="253"/>
+      <c r="AL13" s="253"/>
+      <c r="AM13" s="253"/>
+      <c r="AN13" s="253"/>
+      <c r="AO13" s="253"/>
+      <c r="AP13" s="253"/>
+      <c r="AQ13" s="253"/>
+      <c r="AR13" s="254"/>
     </row>
     <row r="14" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="248"/>
+      <c r="B14" s="251"/>
       <c r="C14" s="200" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +4046,7 @@
       <c r="K14" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="248"/>
+      <c r="M14" s="251"/>
       <c r="N14" s="200" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +4074,7 @@
       <c r="V14" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="248"/>
+      <c r="X14" s="251"/>
       <c r="Y14" s="200" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +4102,7 @@
       <c r="AG14" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="248"/>
+      <c r="AI14" s="251"/>
       <c r="AJ14" s="200" t="s">
         <v>0</v>
       </c>
@@ -2317,57 +4287,57 @@
       </c>
     </row>
     <row r="23" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="247"/>
-      <c r="C23" s="249" t="s">
+      <c r="B23" s="250"/>
+      <c r="C23" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="250"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="250"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="250"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="251"/>
-      <c r="M23" s="247"/>
-      <c r="N23" s="249" t="s">
+      <c r="D23" s="253"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="253"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="254"/>
+      <c r="M23" s="250"/>
+      <c r="N23" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="250"/>
-      <c r="P23" s="250"/>
-      <c r="Q23" s="250"/>
-      <c r="R23" s="250"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="250"/>
-      <c r="V23" s="251"/>
-      <c r="X23" s="247"/>
-      <c r="Y23" s="249" t="s">
+      <c r="O23" s="253"/>
+      <c r="P23" s="253"/>
+      <c r="Q23" s="253"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="253"/>
+      <c r="T23" s="253"/>
+      <c r="U23" s="253"/>
+      <c r="V23" s="254"/>
+      <c r="X23" s="250"/>
+      <c r="Y23" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="Z23" s="250"/>
-      <c r="AA23" s="250"/>
-      <c r="AB23" s="250"/>
-      <c r="AC23" s="250"/>
-      <c r="AD23" s="250"/>
-      <c r="AE23" s="250"/>
-      <c r="AF23" s="250"/>
-      <c r="AG23" s="251"/>
-      <c r="AI23" s="247"/>
-      <c r="AJ23" s="249" t="s">
+      <c r="Z23" s="253"/>
+      <c r="AA23" s="253"/>
+      <c r="AB23" s="253"/>
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="253"/>
+      <c r="AE23" s="253"/>
+      <c r="AF23" s="253"/>
+      <c r="AG23" s="254"/>
+      <c r="AI23" s="250"/>
+      <c r="AJ23" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="AK23" s="250"/>
-      <c r="AL23" s="250"/>
-      <c r="AM23" s="250"/>
-      <c r="AN23" s="250"/>
-      <c r="AO23" s="250"/>
-      <c r="AP23" s="250"/>
-      <c r="AQ23" s="250"/>
-      <c r="AR23" s="251"/>
+      <c r="AK23" s="253"/>
+      <c r="AL23" s="253"/>
+      <c r="AM23" s="253"/>
+      <c r="AN23" s="253"/>
+      <c r="AO23" s="253"/>
+      <c r="AP23" s="253"/>
+      <c r="AQ23" s="253"/>
+      <c r="AR23" s="254"/>
     </row>
     <row r="24" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="248"/>
+      <c r="B24" s="251"/>
       <c r="C24" s="200" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +4365,7 @@
       <c r="K24" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="248"/>
+      <c r="M24" s="251"/>
       <c r="N24" s="200" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +4393,7 @@
       <c r="V24" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="248"/>
+      <c r="X24" s="251"/>
       <c r="Y24" s="200" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +4421,7 @@
       <c r="AG24" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="AI24" s="248"/>
+      <c r="AI24" s="251"/>
       <c r="AJ24" s="200" t="s">
         <v>0</v>
       </c>
@@ -2636,57 +4606,57 @@
       </c>
     </row>
     <row r="33" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="247"/>
-      <c r="C33" s="249" t="s">
+      <c r="B33" s="250"/>
+      <c r="C33" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="250"/>
-      <c r="E33" s="250"/>
-      <c r="F33" s="250"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="250"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="251"/>
-      <c r="M33" s="247"/>
-      <c r="N33" s="249" t="s">
+      <c r="D33" s="253"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="253"/>
+      <c r="G33" s="253"/>
+      <c r="H33" s="253"/>
+      <c r="I33" s="253"/>
+      <c r="J33" s="253"/>
+      <c r="K33" s="254"/>
+      <c r="M33" s="250"/>
+      <c r="N33" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="250"/>
-      <c r="P33" s="250"/>
-      <c r="Q33" s="250"/>
-      <c r="R33" s="250"/>
-      <c r="S33" s="250"/>
-      <c r="T33" s="250"/>
-      <c r="U33" s="250"/>
-      <c r="V33" s="251"/>
-      <c r="X33" s="247"/>
-      <c r="Y33" s="249" t="s">
+      <c r="O33" s="253"/>
+      <c r="P33" s="253"/>
+      <c r="Q33" s="253"/>
+      <c r="R33" s="253"/>
+      <c r="S33" s="253"/>
+      <c r="T33" s="253"/>
+      <c r="U33" s="253"/>
+      <c r="V33" s="254"/>
+      <c r="X33" s="250"/>
+      <c r="Y33" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="Z33" s="250"/>
-      <c r="AA33" s="250"/>
-      <c r="AB33" s="250"/>
-      <c r="AC33" s="250"/>
-      <c r="AD33" s="250"/>
-      <c r="AE33" s="250"/>
-      <c r="AF33" s="250"/>
-      <c r="AG33" s="251"/>
-      <c r="AI33" s="247"/>
-      <c r="AJ33" s="249" t="s">
+      <c r="Z33" s="253"/>
+      <c r="AA33" s="253"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="253"/>
+      <c r="AD33" s="253"/>
+      <c r="AE33" s="253"/>
+      <c r="AF33" s="253"/>
+      <c r="AG33" s="254"/>
+      <c r="AI33" s="250"/>
+      <c r="AJ33" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="AK33" s="250"/>
-      <c r="AL33" s="250"/>
-      <c r="AM33" s="250"/>
-      <c r="AN33" s="250"/>
-      <c r="AO33" s="250"/>
-      <c r="AP33" s="250"/>
-      <c r="AQ33" s="250"/>
-      <c r="AR33" s="251"/>
+      <c r="AK33" s="253"/>
+      <c r="AL33" s="253"/>
+      <c r="AM33" s="253"/>
+      <c r="AN33" s="253"/>
+      <c r="AO33" s="253"/>
+      <c r="AP33" s="253"/>
+      <c r="AQ33" s="253"/>
+      <c r="AR33" s="254"/>
     </row>
     <row r="34" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="248"/>
+      <c r="B34" s="251"/>
       <c r="C34" s="200" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +4684,7 @@
       <c r="K34" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="248"/>
+      <c r="M34" s="251"/>
       <c r="N34" s="200" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +4712,7 @@
       <c r="V34" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="X34" s="248"/>
+      <c r="X34" s="251"/>
       <c r="Y34" s="200" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +4740,7 @@
       <c r="AG34" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="AI34" s="248"/>
+      <c r="AI34" s="251"/>
       <c r="AJ34" s="200" t="s">
         <v>0</v>
       </c>
@@ -2951,6 +4921,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:AG33"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ3:AR3"/>
+    <mergeCell ref="AJ13:AR13"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AJ23:AR23"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AJ33:AR33"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y3:AG3"/>
+    <mergeCell ref="Y13:AG13"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:AG23"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="M3:M4"/>
@@ -2967,28 +4953,944 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:K23"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:AG33"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ3:AR3"/>
-    <mergeCell ref="AJ13:AR13"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AJ23:AR23"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AJ33:AR33"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y3:AG3"/>
-    <mergeCell ref="Y13:AG13"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:AG23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750BB54-30F9-4922-99CE-D8BC68E74204}">
+  <dimension ref="B2:R44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9:R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="256"/>
+      <c r="C3" s="258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="258" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="258" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="261" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="260"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="257"/>
+      <c r="C4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9683</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9615</v>
+      </c>
+      <c r="E5" s="9">
+        <v>9461</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>803</v>
+      </c>
+      <c r="H5" s="9">
+        <v>872</v>
+      </c>
+      <c r="I5" s="9">
+        <v>870</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8">
+        <v>633</v>
+      </c>
+      <c r="L5" s="9">
+        <v>666</v>
+      </c>
+      <c r="M5" s="9">
+        <v>712</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="12">
+        <v>584</v>
+      </c>
+      <c r="P5" s="9">
+        <v>614</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>678</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7274</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7219</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7096</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5">
+        <v>527</v>
+      </c>
+      <c r="H6" s="3">
+        <v>576</v>
+      </c>
+      <c r="I6" s="3">
+        <v>574</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5">
+        <v>395</v>
+      </c>
+      <c r="L6" s="3">
+        <v>416</v>
+      </c>
+      <c r="M6" s="3">
+        <v>449</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="13">
+        <v>356</v>
+      </c>
+      <c r="P6" s="3">
+        <v>376</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>424</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5251</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5209</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5117</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
+        <v>370</v>
+      </c>
+      <c r="H7" s="3">
+        <v>410</v>
+      </c>
+      <c r="I7" s="3">
+        <v>412</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5">
+        <v>270</v>
+      </c>
+      <c r="L7" s="3">
+        <v>289</v>
+      </c>
+      <c r="M7" s="3">
+        <v>321</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="13">
+        <v>240</v>
+      </c>
+      <c r="P7" s="3">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>307</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22">
+        <v>21236</v>
+      </c>
+      <c r="D8" s="23">
+        <v>21079</v>
+      </c>
+      <c r="E8" s="23">
+        <v>20724</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1759</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1908</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1908</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1378</v>
+      </c>
+      <c r="L8" s="23">
+        <v>1447</v>
+      </c>
+      <c r="M8" s="23">
+        <v>1557</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="26">
+        <v>1266</v>
+      </c>
+      <c r="P8" s="23">
+        <v>1330</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1494</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="133">
+        <f>C5/C8</f>
+        <v>0.45597099265398378</v>
+      </c>
+      <c r="D9" s="134">
+        <f>D5/D8</f>
+        <v>0.456141183168082</v>
+      </c>
+      <c r="E9" s="134">
+        <f t="shared" ref="E9" si="0">E5/E8</f>
+        <v>0.45652383709708549</v>
+      </c>
+      <c r="F9" s="135">
+        <f>AVERAGE(C9:E9)</f>
+        <v>0.45621200430638376</v>
+      </c>
+      <c r="G9" s="133">
+        <f>G5/G8</f>
+        <v>0.45650938032973282</v>
+      </c>
+      <c r="H9" s="134">
+        <f t="shared" ref="H9:I9" si="1">H5/H8</f>
+        <v>0.45702306079664567</v>
+      </c>
+      <c r="I9" s="134">
+        <f t="shared" si="1"/>
+        <v>0.45597484276729561</v>
+      </c>
+      <c r="J9" s="135">
+        <f>AVERAGE(G9:I9)</f>
+        <v>0.45650242796455803</v>
+      </c>
+      <c r="K9" s="133">
+        <f>K5/K8</f>
+        <v>0.4593613933236575</v>
+      </c>
+      <c r="L9" s="134">
+        <f t="shared" ref="L9:M9" si="2">L5/L8</f>
+        <v>0.46026261230131305</v>
+      </c>
+      <c r="M9" s="134">
+        <f t="shared" si="2"/>
+        <v>0.45728965960179835</v>
+      </c>
+      <c r="N9" s="135">
+        <f>AVERAGE(K9:M9)</f>
+        <v>0.4589712217422563</v>
+      </c>
+      <c r="O9" s="136">
+        <f>O5/O8</f>
+        <v>0.46129541864139023</v>
+      </c>
+      <c r="P9" s="134">
+        <f t="shared" ref="P9:Q9" si="3">P5/P8</f>
+        <v>0.46165413533834587</v>
+      </c>
+      <c r="Q9" s="134">
+        <f t="shared" si="3"/>
+        <v>0.45381526104417669</v>
+      </c>
+      <c r="R9" s="135">
+        <f>AVERAGE(O9:Q9)</f>
+        <v>0.45892160500797097</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="138">
+        <f>C6/C8</f>
+        <v>0.34253155019777737</v>
+      </c>
+      <c r="D10" s="139">
+        <f>D6/D8</f>
+        <v>0.34247355187627498</v>
+      </c>
+      <c r="E10" s="139">
+        <f t="shared" ref="E10" si="4">E6/E8</f>
+        <v>0.3424049411310558</v>
+      </c>
+      <c r="F10" s="140">
+        <f t="shared" ref="F10:F11" si="5">AVERAGE(C10:E10)</f>
+        <v>0.34247001440170272</v>
+      </c>
+      <c r="G10" s="138">
+        <f>G6/G8</f>
+        <v>0.29960204661739626</v>
+      </c>
+      <c r="H10" s="139">
+        <f t="shared" ref="H10:I10" si="6">H6/H8</f>
+        <v>0.30188679245283018</v>
+      </c>
+      <c r="I10" s="139">
+        <f t="shared" si="6"/>
+        <v>0.30083857442348011</v>
+      </c>
+      <c r="J10" s="140">
+        <f t="shared" ref="J10:J11" si="7">AVERAGE(G10:I10)</f>
+        <v>0.30077580449790214</v>
+      </c>
+      <c r="K10" s="138">
+        <f>K6/K8</f>
+        <v>0.28664731494920176</v>
+      </c>
+      <c r="L10" s="139">
+        <f t="shared" ref="L10:M10" si="8">L6/L8</f>
+        <v>0.28749136143745679</v>
+      </c>
+      <c r="M10" s="139">
+        <f t="shared" si="8"/>
+        <v>0.28837508028259473</v>
+      </c>
+      <c r="N10" s="140">
+        <f t="shared" ref="N10:N11" si="9">AVERAGE(K10:M10)</f>
+        <v>0.28750458555641772</v>
+      </c>
+      <c r="O10" s="141">
+        <f>O6/O8</f>
+        <v>0.28120063191153238</v>
+      </c>
+      <c r="P10" s="139">
+        <f t="shared" ref="P10:Q10" si="10">P6/P8</f>
+        <v>0.28270676691729324</v>
+      </c>
+      <c r="Q10" s="139">
+        <f t="shared" si="10"/>
+        <v>0.28380187416331992</v>
+      </c>
+      <c r="R10" s="140">
+        <f t="shared" ref="R10:R11" si="11">AVERAGE(O10:Q10)</f>
+        <v>0.28256975766404852</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="143">
+        <f>C7/C8</f>
+        <v>0.24726878884912412</v>
+      </c>
+      <c r="D11" s="144">
+        <f>D7/D8</f>
+        <v>0.24711798472413302</v>
+      </c>
+      <c r="E11" s="144">
+        <f t="shared" ref="E11" si="12">E7/E8</f>
+        <v>0.24691179309013703</v>
+      </c>
+      <c r="F11" s="145">
+        <f t="shared" si="5"/>
+        <v>0.24709952222113138</v>
+      </c>
+      <c r="G11" s="143">
+        <f>G7/G8</f>
+        <v>0.21034678794769757</v>
+      </c>
+      <c r="H11" s="144">
+        <f t="shared" ref="H11:I11" si="13">H7/H8</f>
+        <v>0.21488469601677149</v>
+      </c>
+      <c r="I11" s="144">
+        <f t="shared" si="13"/>
+        <v>0.21593291404612158</v>
+      </c>
+      <c r="J11" s="145">
+        <f t="shared" si="7"/>
+        <v>0.21372146600353023</v>
+      </c>
+      <c r="K11" s="143">
+        <f>K7/K8</f>
+        <v>0.19593613933236576</v>
+      </c>
+      <c r="L11" s="144">
+        <f t="shared" ref="L11:M11" si="14">L7/L8</f>
+        <v>0.19972356599861782</v>
+      </c>
+      <c r="M11" s="144">
+        <f t="shared" si="14"/>
+        <v>0.20616570327552985</v>
+      </c>
+      <c r="N11" s="145">
+        <f t="shared" si="9"/>
+        <v>0.20060846953550449</v>
+      </c>
+      <c r="O11" s="146">
+        <f>O7/O8</f>
+        <v>0.1895734597156398</v>
+      </c>
+      <c r="P11" s="144">
+        <f t="shared" ref="P11:Q11" si="15">P7/P8</f>
+        <v>0.19398496240601504</v>
+      </c>
+      <c r="Q11" s="144">
+        <f t="shared" si="15"/>
+        <v>0.20548862115127176</v>
+      </c>
+      <c r="R11" s="145">
+        <f t="shared" si="11"/>
+        <v>0.19634901442430885</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="256"/>
+      <c r="C14" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="257"/>
+      <c r="C15" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="213"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="214"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="214"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="215"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="132" t="e">
+        <f>C16/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="132" t="e">
+        <f t="shared" ref="D20:F20" si="16">D16/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="132" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="241" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="137" t="e">
+        <f>C17/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="137" t="e">
+        <f t="shared" ref="D21:F21" si="17">D17/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="137" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="242" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="142" t="e">
+        <f>C18/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="142" t="e">
+        <f t="shared" ref="D22:F22" si="18">D18/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="142" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="243" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="256"/>
+      <c r="C25" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="257"/>
+      <c r="C26" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="213"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="214"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="214"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="215"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="132" t="e">
+        <f>C27/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="132" t="e">
+        <f t="shared" ref="D31:F31" si="19">D27/D30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="132" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="241" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="137" t="e">
+        <f>C28/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="137" t="e">
+        <f t="shared" ref="D32:F32" si="20">D28/D30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="137" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="242" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="142" t="e">
+        <f>C29/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="142" t="e">
+        <f t="shared" ref="D33:F33" si="21">D29/D30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="142" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="243" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="256"/>
+      <c r="C36" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="257"/>
+      <c r="C37" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="213"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="214"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="214"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="215"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="132" t="e">
+        <f>C38/C41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="132" t="e">
+        <f t="shared" ref="D42:F42" si="22">D38/D41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="132" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="241" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="137" t="e">
+        <f>C39/C41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="137" t="e">
+        <f t="shared" ref="D43:F43" si="23">D39/D41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="137" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="242" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="142" t="e">
+        <f>C40/C41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="142" t="e">
+        <f t="shared" ref="D44:F44" si="24">D40/D41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="142" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="243" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C118EB00-094B-4281-9A38-B6F70769AE86}">
   <dimension ref="B2:R44"/>
   <sheetViews>
@@ -3007,34 +5909,34 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="252"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="255" t="s">
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="255" t="s">
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="258" t="s">
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="260"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
@@ -3509,7 +6411,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="218" t="s">
         <v>13</v>
       </c>
@@ -3524,7 +6426,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="216" t="s">
         <v>10</v>
       </c>
@@ -3643,7 +6545,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="218" t="s">
         <v>13</v>
       </c>
@@ -3658,7 +6560,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="216" t="s">
         <v>10</v>
       </c>
@@ -3777,7 +6679,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="218" t="s">
         <v>13</v>
       </c>
@@ -3792,7 +6694,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="216" t="s">
         <v>10</v>
       </c>
@@ -3921,6 +6823,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7B8FA-9152-4688-8EFF-D6101F9790E7}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>360</v>
+      </c>
+      <c r="B5">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>135</v>
+      </c>
+      <c r="B9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>360</v>
+      </c>
+      <c r="B11">
+        <v>792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9D35C-B22F-4C90-B059-8EBB2DF64DFB}">
   <dimension ref="B2:R44"/>
   <sheetViews>
@@ -3937,34 +6929,34 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="249" t="s">
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="249" t="s">
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="254" t="s">
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="209" t="s">
         <v>9</v>
       </c>
@@ -4442,7 +7434,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="218" t="s">
         <v>13</v>
       </c>
@@ -4457,7 +7449,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="216" t="s">
         <v>10</v>
       </c>
@@ -4576,7 +7568,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="218" t="s">
         <v>13</v>
       </c>
@@ -4591,7 +7583,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="216" t="s">
         <v>10</v>
       </c>
@@ -4710,7 +7702,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="218" t="s">
         <v>13</v>
       </c>
@@ -4725,7 +7717,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="216" t="s">
         <v>10</v>
       </c>
@@ -4854,7 +7846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4CA45D-1296-4006-9494-B160BC2F30B9}">
   <dimension ref="B2:R44"/>
   <sheetViews>
@@ -4873,34 +7865,34 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252"/>
-      <c r="C3" s="249" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="249" t="s">
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="252" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="249" t="s">
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="254" t="s">
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="209" t="s">
         <v>9</v>
       </c>
@@ -5375,7 +8367,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="218" t="s">
         <v>13</v>
       </c>
@@ -5390,7 +8382,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="216" t="s">
         <v>10</v>
       </c>
@@ -5509,7 +8501,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="218" t="s">
         <v>13</v>
       </c>
@@ -5524,7 +8516,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="216" t="s">
         <v>10</v>
       </c>
@@ -5643,7 +8635,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="218" t="s">
         <v>13</v>
       </c>
@@ -5658,7 +8650,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="216" t="s">
         <v>10</v>
       </c>
@@ -5767,938 +8759,6 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="225" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C74EB03-0091-489C-B536-A3D8C1DB2883}">
-  <dimension ref="B2:R44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9:R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252"/>
-      <c r="C3" s="249" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="249" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="249" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="251"/>
-      <c r="O3" s="254" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
-      <c r="C4" s="209" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="210" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="211" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="209" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="210" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="211" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="209" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="210" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="211" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="212" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="210" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="210" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="211" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1786</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1772</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1788</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8">
-        <v>578</v>
-      </c>
-      <c r="H5" s="9">
-        <v>587</v>
-      </c>
-      <c r="I5" s="9">
-        <v>592</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="8">
-        <v>557</v>
-      </c>
-      <c r="L5" s="9">
-        <v>572</v>
-      </c>
-      <c r="M5" s="9">
-        <v>593</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="12">
-        <v>551</v>
-      </c>
-      <c r="P5" s="9">
-        <v>571</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>646</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3085</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3060</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3079</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5">
-        <v>409</v>
-      </c>
-      <c r="H6" s="3">
-        <v>420</v>
-      </c>
-      <c r="I6" s="3">
-        <v>426</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5">
-        <v>354</v>
-      </c>
-      <c r="L6" s="3">
-        <v>364</v>
-      </c>
-      <c r="M6" s="3">
-        <v>383</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="13">
-        <v>338</v>
-      </c>
-      <c r="P6" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>413</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2301</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2282</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2296</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5">
-        <v>285</v>
-      </c>
-      <c r="H7" s="3">
-        <v>295</v>
-      </c>
-      <c r="I7" s="3">
-        <v>302</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="5">
-        <v>240</v>
-      </c>
-      <c r="L7" s="3">
-        <v>250</v>
-      </c>
-      <c r="M7" s="3">
-        <v>271</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="13">
-        <v>226</v>
-      </c>
-      <c r="P7" s="3">
-        <v>240</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>304</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="22">
-        <v>7064</v>
-      </c>
-      <c r="D8" s="23">
-        <v>7006</v>
-      </c>
-      <c r="E8" s="23">
-        <v>7056</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1357</v>
-      </c>
-      <c r="H8" s="23">
-        <v>1386</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1403</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="22">
-        <v>1240</v>
-      </c>
-      <c r="L8" s="23">
-        <v>1273</v>
-      </c>
-      <c r="M8" s="23">
-        <v>1337</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="26">
-        <v>1206</v>
-      </c>
-      <c r="P8" s="23">
-        <v>1250</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>1456</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="73">
-        <f>C5/C8</f>
-        <v>0.25283125707814269</v>
-      </c>
-      <c r="D9" s="74">
-        <f>D5/D8</f>
-        <v>0.25292606337425066</v>
-      </c>
-      <c r="E9" s="74">
-        <f t="shared" ref="E9" si="0">E5/E8</f>
-        <v>0.25340136054421769</v>
-      </c>
-      <c r="F9" s="75">
-        <f>AVERAGE(C9:E9)</f>
-        <v>0.25305289366553702</v>
-      </c>
-      <c r="G9" s="73">
-        <f>G5/G8</f>
-        <v>0.42593957258658804</v>
-      </c>
-      <c r="H9" s="74">
-        <f t="shared" ref="H9:I9" si="1">H5/H8</f>
-        <v>0.42352092352092352</v>
-      </c>
-      <c r="I9" s="74">
-        <f t="shared" si="1"/>
-        <v>0.4219529579472559</v>
-      </c>
-      <c r="J9" s="75">
-        <f>AVERAGE(G9:I9)</f>
-        <v>0.42380448468492249</v>
-      </c>
-      <c r="K9" s="73">
-        <f>K5/K8</f>
-        <v>0.4491935483870968</v>
-      </c>
-      <c r="L9" s="74">
-        <f t="shared" ref="L9:M9" si="2">L5/L8</f>
-        <v>0.44933228593872743</v>
-      </c>
-      <c r="M9" s="74">
-        <f t="shared" si="2"/>
-        <v>0.44353029169783098</v>
-      </c>
-      <c r="N9" s="75">
-        <f>AVERAGE(K9:M9)</f>
-        <v>0.44735204200788509</v>
-      </c>
-      <c r="O9" s="76">
-        <f>O5/O8</f>
-        <v>0.45688225538971805</v>
-      </c>
-      <c r="P9" s="74">
-        <f t="shared" ref="P9:Q9" si="3">P5/P8</f>
-        <v>0.45679999999999998</v>
-      </c>
-      <c r="Q9" s="74">
-        <f t="shared" si="3"/>
-        <v>0.44368131868131866</v>
-      </c>
-      <c r="R9" s="75">
-        <f>AVERAGE(O9:Q9)</f>
-        <v>0.45245452469034558</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="78">
-        <f>C6/C8</f>
-        <v>0.43672140430351075</v>
-      </c>
-      <c r="D10" s="79">
-        <f>D6/D8</f>
-        <v>0.43676848415643732</v>
-      </c>
-      <c r="E10" s="79">
-        <f t="shared" ref="E10" si="4">E6/E8</f>
-        <v>0.43636621315192742</v>
-      </c>
-      <c r="F10" s="80">
-        <f t="shared" ref="F10:F11" si="5">AVERAGE(C10:E10)</f>
-        <v>0.43661870053729185</v>
-      </c>
-      <c r="G10" s="78">
-        <f>G6/G8</f>
-        <v>0.30140014738393517</v>
-      </c>
-      <c r="H10" s="79">
-        <f t="shared" ref="H10:I10" si="6">H6/H8</f>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="I10" s="79">
-        <f t="shared" si="6"/>
-        <v>0.30363506771204563</v>
-      </c>
-      <c r="J10" s="80">
-        <f t="shared" ref="J10:J11" si="7">AVERAGE(G10:I10)</f>
-        <v>0.30268850604209457</v>
-      </c>
-      <c r="K10" s="78">
-        <f>K6/K8</f>
-        <v>0.28548387096774192</v>
-      </c>
-      <c r="L10" s="79">
-        <f t="shared" ref="L10:M10" si="8">L6/L8</f>
-        <v>0.28593872741555382</v>
-      </c>
-      <c r="M10" s="79">
-        <f t="shared" si="8"/>
-        <v>0.28646222887060585</v>
-      </c>
-      <c r="N10" s="80">
-        <f t="shared" ref="N10:N11" si="9">AVERAGE(K10:M10)</f>
-        <v>0.28596160908463381</v>
-      </c>
-      <c r="O10" s="81">
-        <f>O6/O8</f>
-        <v>0.28026533996683251</v>
-      </c>
-      <c r="P10" s="79">
-        <f t="shared" ref="P10:Q10" si="10">P6/P8</f>
-        <v>0.28160000000000002</v>
-      </c>
-      <c r="Q10" s="79">
-        <f t="shared" si="10"/>
-        <v>0.28365384615384615</v>
-      </c>
-      <c r="R10" s="80">
-        <f t="shared" ref="R10:R11" si="11">AVERAGE(O10:Q10)</f>
-        <v>0.28183972870689289</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="83">
-        <f>C7/C8</f>
-        <v>0.32573612684031711</v>
-      </c>
-      <c r="D11" s="84">
-        <f>D7/D8</f>
-        <v>0.32572081073365688</v>
-      </c>
-      <c r="E11" s="84">
-        <f t="shared" ref="E11" si="12">E7/E8</f>
-        <v>0.32539682539682541</v>
-      </c>
-      <c r="F11" s="85">
-        <f t="shared" si="5"/>
-        <v>0.32561792099026649</v>
-      </c>
-      <c r="G11" s="83">
-        <f>G7/G8</f>
-        <v>0.21002210759027265</v>
-      </c>
-      <c r="H11" s="84">
-        <f t="shared" ref="H11:I11" si="13">H7/H8</f>
-        <v>0.21284271284271283</v>
-      </c>
-      <c r="I11" s="84">
-        <f t="shared" si="13"/>
-        <v>0.21525302922309336</v>
-      </c>
-      <c r="J11" s="85">
-        <f t="shared" si="7"/>
-        <v>0.21270594988535962</v>
-      </c>
-      <c r="K11" s="83">
-        <f>K7/K8</f>
-        <v>0.19354838709677419</v>
-      </c>
-      <c r="L11" s="84">
-        <f t="shared" ref="L11:M11" si="14">L7/L8</f>
-        <v>0.19638648860958366</v>
-      </c>
-      <c r="M11" s="84">
-        <f t="shared" si="14"/>
-        <v>0.20269259536275244</v>
-      </c>
-      <c r="N11" s="85">
-        <f t="shared" si="9"/>
-        <v>0.19754249035637009</v>
-      </c>
-      <c r="O11" s="86">
-        <f>O7/O8</f>
-        <v>0.18739635157545606</v>
-      </c>
-      <c r="P11" s="84">
-        <f t="shared" ref="P11:Q11" si="15">P7/P8</f>
-        <v>0.192</v>
-      </c>
-      <c r="Q11" s="84">
-        <f t="shared" si="15"/>
-        <v>0.2087912087912088</v>
-      </c>
-      <c r="R11" s="85">
-        <f t="shared" si="11"/>
-        <v>0.19606252012222161</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
-      <c r="C14" s="218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="218" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="219" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
-      <c r="C15" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="213"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="214"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="214"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="215"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="72" t="e">
-        <f>C16/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="72" t="e">
-        <f t="shared" ref="D20:F20" si="16">D16/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="72" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="226" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="77" t="e">
-        <f>C17/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="77" t="e">
-        <f t="shared" ref="D21:F21" si="17">D17/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="77" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="227" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="82" t="e">
-        <f>C18/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="82" t="e">
-        <f t="shared" ref="D22:F22" si="18">D18/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="82" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="228" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
-      <c r="C25" s="218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="218" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="219" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
-      <c r="C26" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="213"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="214"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="214"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="215"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="72" t="e">
-        <f>C27/C30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="72" t="e">
-        <f t="shared" ref="D31" si="19">D27/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="72" t="e">
-        <f t="shared" ref="E31" si="20">E27/E30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="226" t="e">
-        <f t="shared" ref="F31" si="21">F27/F30</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="77" t="e">
-        <f>C28/C30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="77" t="e">
-        <f t="shared" ref="D32:F32" si="22">D28/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="77" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="227" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="82" t="e">
-        <f>C29/C30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="82" t="e">
-        <f t="shared" ref="D33:F33" si="23">D29/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="82" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="228" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
-      <c r="C36" s="218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="218" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="219" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
-      <c r="C37" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="213"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="214"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="214"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="215"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="72" t="e">
-        <f>C38/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D42" s="72" t="e">
-        <f t="shared" ref="D42" si="24">D38/D41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="72" t="e">
-        <f t="shared" ref="E42" si="25">E38/E41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="226" t="e">
-        <f t="shared" ref="F42" si="26">F38/F41</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="77" t="e">
-        <f>C39/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D43" s="77" t="e">
-        <f t="shared" ref="D43:F43" si="27">D39/D41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="77" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="227" t="e">
-        <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="82" t="e">
-        <f>C40/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D44" s="82" t="e">
-        <f t="shared" ref="D44:F44" si="28">D40/D41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="82" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="228" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
@@ -6719,6 +8779,938 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C74EB03-0091-489C-B536-A3D8C1DB2883}">
+  <dimension ref="B2:R44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9:R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="256"/>
+      <c r="C3" s="252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="252" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="253"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="252" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="255" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="257"/>
+      <c r="C4" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="210" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="210" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="210" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="210" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="210" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="211" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="212" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="210" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="210" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="211" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1786</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1772</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1788</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>578</v>
+      </c>
+      <c r="H5" s="9">
+        <v>587</v>
+      </c>
+      <c r="I5" s="9">
+        <v>592</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8">
+        <v>557</v>
+      </c>
+      <c r="L5" s="9">
+        <v>572</v>
+      </c>
+      <c r="M5" s="9">
+        <v>593</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="12">
+        <v>551</v>
+      </c>
+      <c r="P5" s="9">
+        <v>571</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>646</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3085</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3060</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3079</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5">
+        <v>409</v>
+      </c>
+      <c r="H6" s="3">
+        <v>420</v>
+      </c>
+      <c r="I6" s="3">
+        <v>426</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5">
+        <v>354</v>
+      </c>
+      <c r="L6" s="3">
+        <v>364</v>
+      </c>
+      <c r="M6" s="3">
+        <v>383</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="13">
+        <v>338</v>
+      </c>
+      <c r="P6" s="3">
+        <v>352</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>413</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2301</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2282</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2296</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5">
+        <v>285</v>
+      </c>
+      <c r="H7" s="3">
+        <v>295</v>
+      </c>
+      <c r="I7" s="3">
+        <v>302</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5">
+        <v>240</v>
+      </c>
+      <c r="L7" s="3">
+        <v>250</v>
+      </c>
+      <c r="M7" s="3">
+        <v>271</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="13">
+        <v>226</v>
+      </c>
+      <c r="P7" s="3">
+        <v>240</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>304</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22">
+        <v>7064</v>
+      </c>
+      <c r="D8" s="23">
+        <v>7006</v>
+      </c>
+      <c r="E8" s="23">
+        <v>7056</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1357</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1386</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1403</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="22">
+        <v>1240</v>
+      </c>
+      <c r="L8" s="23">
+        <v>1273</v>
+      </c>
+      <c r="M8" s="23">
+        <v>1337</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="26">
+        <v>1206</v>
+      </c>
+      <c r="P8" s="23">
+        <v>1250</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1456</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="73">
+        <f>C5/C8</f>
+        <v>0.25283125707814269</v>
+      </c>
+      <c r="D9" s="74">
+        <f>D5/D8</f>
+        <v>0.25292606337425066</v>
+      </c>
+      <c r="E9" s="74">
+        <f t="shared" ref="E9" si="0">E5/E8</f>
+        <v>0.25340136054421769</v>
+      </c>
+      <c r="F9" s="75">
+        <f>AVERAGE(C9:E9)</f>
+        <v>0.25305289366553702</v>
+      </c>
+      <c r="G9" s="73">
+        <f>G5/G8</f>
+        <v>0.42593957258658804</v>
+      </c>
+      <c r="H9" s="74">
+        <f t="shared" ref="H9:I9" si="1">H5/H8</f>
+        <v>0.42352092352092352</v>
+      </c>
+      <c r="I9" s="74">
+        <f t="shared" si="1"/>
+        <v>0.4219529579472559</v>
+      </c>
+      <c r="J9" s="75">
+        <f>AVERAGE(G9:I9)</f>
+        <v>0.42380448468492249</v>
+      </c>
+      <c r="K9" s="73">
+        <f>K5/K8</f>
+        <v>0.4491935483870968</v>
+      </c>
+      <c r="L9" s="74">
+        <f t="shared" ref="L9:M9" si="2">L5/L8</f>
+        <v>0.44933228593872743</v>
+      </c>
+      <c r="M9" s="74">
+        <f t="shared" si="2"/>
+        <v>0.44353029169783098</v>
+      </c>
+      <c r="N9" s="75">
+        <f>AVERAGE(K9:M9)</f>
+        <v>0.44735204200788509</v>
+      </c>
+      <c r="O9" s="76">
+        <f>O5/O8</f>
+        <v>0.45688225538971805</v>
+      </c>
+      <c r="P9" s="74">
+        <f t="shared" ref="P9:Q9" si="3">P5/P8</f>
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="Q9" s="74">
+        <f t="shared" si="3"/>
+        <v>0.44368131868131866</v>
+      </c>
+      <c r="R9" s="75">
+        <f>AVERAGE(O9:Q9)</f>
+        <v>0.45245452469034558</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="78">
+        <f>C6/C8</f>
+        <v>0.43672140430351075</v>
+      </c>
+      <c r="D10" s="79">
+        <f>D6/D8</f>
+        <v>0.43676848415643732</v>
+      </c>
+      <c r="E10" s="79">
+        <f t="shared" ref="E10" si="4">E6/E8</f>
+        <v>0.43636621315192742</v>
+      </c>
+      <c r="F10" s="80">
+        <f t="shared" ref="F10:F11" si="5">AVERAGE(C10:E10)</f>
+        <v>0.43661870053729185</v>
+      </c>
+      <c r="G10" s="78">
+        <f>G6/G8</f>
+        <v>0.30140014738393517</v>
+      </c>
+      <c r="H10" s="79">
+        <f t="shared" ref="H10:I10" si="6">H6/H8</f>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="I10" s="79">
+        <f t="shared" si="6"/>
+        <v>0.30363506771204563</v>
+      </c>
+      <c r="J10" s="80">
+        <f t="shared" ref="J10:J11" si="7">AVERAGE(G10:I10)</f>
+        <v>0.30268850604209457</v>
+      </c>
+      <c r="K10" s="78">
+        <f>K6/K8</f>
+        <v>0.28548387096774192</v>
+      </c>
+      <c r="L10" s="79">
+        <f t="shared" ref="L10:M10" si="8">L6/L8</f>
+        <v>0.28593872741555382</v>
+      </c>
+      <c r="M10" s="79">
+        <f t="shared" si="8"/>
+        <v>0.28646222887060585</v>
+      </c>
+      <c r="N10" s="80">
+        <f t="shared" ref="N10:N11" si="9">AVERAGE(K10:M10)</f>
+        <v>0.28596160908463381</v>
+      </c>
+      <c r="O10" s="81">
+        <f>O6/O8</f>
+        <v>0.28026533996683251</v>
+      </c>
+      <c r="P10" s="79">
+        <f t="shared" ref="P10:Q10" si="10">P6/P8</f>
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="Q10" s="79">
+        <f t="shared" si="10"/>
+        <v>0.28365384615384615</v>
+      </c>
+      <c r="R10" s="80">
+        <f t="shared" ref="R10:R11" si="11">AVERAGE(O10:Q10)</f>
+        <v>0.28183972870689289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="83">
+        <f>C7/C8</f>
+        <v>0.32573612684031711</v>
+      </c>
+      <c r="D11" s="84">
+        <f>D7/D8</f>
+        <v>0.32572081073365688</v>
+      </c>
+      <c r="E11" s="84">
+        <f t="shared" ref="E11" si="12">E7/E8</f>
+        <v>0.32539682539682541</v>
+      </c>
+      <c r="F11" s="85">
+        <f t="shared" si="5"/>
+        <v>0.32561792099026649</v>
+      </c>
+      <c r="G11" s="83">
+        <f>G7/G8</f>
+        <v>0.21002210759027265</v>
+      </c>
+      <c r="H11" s="84">
+        <f t="shared" ref="H11:I11" si="13">H7/H8</f>
+        <v>0.21284271284271283</v>
+      </c>
+      <c r="I11" s="84">
+        <f t="shared" si="13"/>
+        <v>0.21525302922309336</v>
+      </c>
+      <c r="J11" s="85">
+        <f t="shared" si="7"/>
+        <v>0.21270594988535962</v>
+      </c>
+      <c r="K11" s="83">
+        <f>K7/K8</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="L11" s="84">
+        <f t="shared" ref="L11:M11" si="14">L7/L8</f>
+        <v>0.19638648860958366</v>
+      </c>
+      <c r="M11" s="84">
+        <f t="shared" si="14"/>
+        <v>0.20269259536275244</v>
+      </c>
+      <c r="N11" s="85">
+        <f t="shared" si="9"/>
+        <v>0.19754249035637009</v>
+      </c>
+      <c r="O11" s="86">
+        <f>O7/O8</f>
+        <v>0.18739635157545606</v>
+      </c>
+      <c r="P11" s="84">
+        <f t="shared" ref="P11:Q11" si="15">P7/P8</f>
+        <v>0.192</v>
+      </c>
+      <c r="Q11" s="84">
+        <f t="shared" si="15"/>
+        <v>0.2087912087912088</v>
+      </c>
+      <c r="R11" s="85">
+        <f t="shared" si="11"/>
+        <v>0.19606252012222161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="256"/>
+      <c r="C14" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="257"/>
+      <c r="C15" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="213"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="214"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="214"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="215"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="72" t="e">
+        <f>C16/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="72" t="e">
+        <f t="shared" ref="D20:F20" si="16">D16/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="72" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="226" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="77" t="e">
+        <f>C17/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="77" t="e">
+        <f t="shared" ref="D21:F21" si="17">D17/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="77" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="227" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="82" t="e">
+        <f>C18/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="82" t="e">
+        <f t="shared" ref="D22:F22" si="18">D18/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="82" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F22" s="228" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="256"/>
+      <c r="C25" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="257"/>
+      <c r="C26" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="213"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="214"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="214"/>
+    </row>
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="215"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="72" t="e">
+        <f>C27/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="72" t="e">
+        <f t="shared" ref="D31" si="19">D27/D30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="72" t="e">
+        <f t="shared" ref="E31" si="20">E27/E30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="226" t="e">
+        <f t="shared" ref="F31" si="21">F27/F30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="77" t="e">
+        <f>C28/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="77" t="e">
+        <f t="shared" ref="D32:F32" si="22">D28/D30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="77" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="227" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="82" t="e">
+        <f>C29/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="82" t="e">
+        <f t="shared" ref="D33:F33" si="23">D29/D30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="82" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="228" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="256"/>
+      <c r="C36" s="218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="257"/>
+      <c r="C37" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="213"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="214"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="214"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="215"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="72" t="e">
+        <f>C38/C41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="72" t="e">
+        <f t="shared" ref="D42" si="24">D38/D41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="72" t="e">
+        <f t="shared" ref="E42" si="25">E38/E41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="226" t="e">
+        <f t="shared" ref="F42" si="26">F38/F41</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="77" t="e">
+        <f>C39/C41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="77" t="e">
+        <f t="shared" ref="D43:F43" si="27">D39/D41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="77" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="227" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="82" t="e">
+        <f>C40/C41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="82" t="e">
+        <f t="shared" ref="D44:F44" si="28">D40/D41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="82" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="228" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36DD99E-7CA7-45CC-B6D9-1B2F14019FA8}">
   <dimension ref="B2:R44"/>
   <sheetViews>
@@ -6737,34 +9729,34 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="252"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="255" t="s">
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="255" t="s">
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="258" t="s">
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="260"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
@@ -7030,7 +10022,7 @@
       <c r="B9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="259">
+      <c r="C9" s="247">
         <f>C5/C8</f>
         <v>0.58269049858889932</v>
       </c>
@@ -7099,7 +10091,7 @@
       <c r="B10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="260">
+      <c r="C10" s="248">
         <f>C6/C8</f>
         <v>0.25888993414863593</v>
       </c>
@@ -7168,7 +10160,7 @@
       <c r="B11" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="261">
+      <c r="C11" s="249">
         <f>C7/C8</f>
         <v>0.21480087801818751</v>
       </c>
@@ -7239,7 +10231,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="218" t="s">
         <v>13</v>
       </c>
@@ -7254,7 +10246,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="216" t="s">
         <v>10</v>
       </c>
@@ -7373,7 +10365,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="218" t="s">
         <v>13</v>
       </c>
@@ -7388,7 +10380,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="216" t="s">
         <v>10</v>
       </c>
@@ -7507,7 +10499,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="218" t="s">
         <v>13</v>
       </c>
@@ -7522,7 +10514,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="216" t="s">
         <v>10</v>
       </c>
@@ -7651,7 +10643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC47C40-2849-4CFC-B671-D1712D60E2C9}">
   <dimension ref="B2:R44"/>
   <sheetViews>
@@ -7670,34 +10662,34 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="252"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="255" t="s">
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="255" t="s">
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="258" t="s">
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="260"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
@@ -8172,7 +11164,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="218" t="s">
         <v>13</v>
       </c>
@@ -8187,7 +11179,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="216" t="s">
         <v>10</v>
       </c>
@@ -8306,7 +11298,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="218" t="s">
         <v>13</v>
       </c>
@@ -8321,7 +11313,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="216" t="s">
         <v>10</v>
       </c>
@@ -8440,7 +11432,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="218" t="s">
         <v>13</v>
       </c>
@@ -8455,7 +11447,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="216" t="s">
         <v>10</v>
       </c>
@@ -8564,938 +11556,6 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F44" s="234" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE6895-D064-4E08-B311-277FA135903C}">
-  <dimension ref="B2:R44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9:R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="252"/>
-      <c r="C3" s="255" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="255" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="255" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="258" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
-    </row>
-    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
-      <c r="C4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8">
-        <v>8651</v>
-      </c>
-      <c r="D5" s="9">
-        <v>8710</v>
-      </c>
-      <c r="E5" s="9">
-        <v>8597</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8">
-        <v>806</v>
-      </c>
-      <c r="H5" s="9">
-        <v>815</v>
-      </c>
-      <c r="I5" s="9">
-        <v>838</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="8">
-        <v>631</v>
-      </c>
-      <c r="L5" s="9">
-        <v>652</v>
-      </c>
-      <c r="M5" s="9">
-        <v>684</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="12">
-        <v>578</v>
-      </c>
-      <c r="P5" s="9">
-        <v>606</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>692</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1520</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1533</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1513</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5">
-        <v>364</v>
-      </c>
-      <c r="H6" s="3">
-        <v>369</v>
-      </c>
-      <c r="I6" s="3">
-        <v>373</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5">
-        <v>340</v>
-      </c>
-      <c r="L6" s="3">
-        <v>349</v>
-      </c>
-      <c r="M6" s="3">
-        <v>365</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="13">
-        <v>332</v>
-      </c>
-      <c r="P6" s="3">
-        <v>345</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>401</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1637</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1649</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1626</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5">
-        <v>260</v>
-      </c>
-      <c r="H7" s="3">
-        <v>264</v>
-      </c>
-      <c r="I7" s="3">
-        <v>269</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="5">
-        <v>231</v>
-      </c>
-      <c r="L7" s="3">
-        <v>240</v>
-      </c>
-      <c r="M7" s="3">
-        <v>256</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="13">
-        <v>222</v>
-      </c>
-      <c r="P7" s="3">
-        <v>235</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>292</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="22">
-        <v>10964</v>
-      </c>
-      <c r="D8" s="23">
-        <v>11043</v>
-      </c>
-      <c r="E8" s="23">
-        <v>10900</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1489</v>
-      </c>
-      <c r="H8" s="23">
-        <v>1504</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1534</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="22">
-        <v>1283</v>
-      </c>
-      <c r="L8" s="23">
-        <v>1318</v>
-      </c>
-      <c r="M8" s="23">
-        <v>1383</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="26">
-        <v>1219</v>
-      </c>
-      <c r="P8" s="23">
-        <v>1270</v>
-      </c>
-      <c r="Q8" s="23">
-        <v>1471</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="103">
-        <f>C5/C8</f>
-        <v>0.78903684786574246</v>
-      </c>
-      <c r="D9" s="104">
-        <f>D5/D8</f>
-        <v>0.78873494521416276</v>
-      </c>
-      <c r="E9" s="104">
-        <f t="shared" ref="E9" si="0">E5/E8</f>
-        <v>0.78871559633027521</v>
-      </c>
-      <c r="F9" s="105">
-        <f>AVERAGE(C9:E9)</f>
-        <v>0.78882912980339348</v>
-      </c>
-      <c r="G9" s="103">
-        <f>G5/G8</f>
-        <v>0.54130288784419078</v>
-      </c>
-      <c r="H9" s="104">
-        <f t="shared" ref="H9:I9" si="1">H5/H8</f>
-        <v>0.54188829787234039</v>
-      </c>
-      <c r="I9" s="104">
-        <f t="shared" si="1"/>
-        <v>0.54628422425032597</v>
-      </c>
-      <c r="J9" s="105">
-        <f>AVERAGE(G9:I9)</f>
-        <v>0.54315846998895234</v>
-      </c>
-      <c r="K9" s="103">
-        <f>K5/K8</f>
-        <v>0.49181605611847234</v>
-      </c>
-      <c r="L9" s="104">
-        <f t="shared" ref="L9:M9" si="2">L5/L8</f>
-        <v>0.49468892261001518</v>
-      </c>
-      <c r="M9" s="104">
-        <f t="shared" si="2"/>
-        <v>0.49457700650759218</v>
-      </c>
-      <c r="N9" s="105">
-        <f>AVERAGE(K9:M9)</f>
-        <v>0.49369399507869322</v>
-      </c>
-      <c r="O9" s="106">
-        <f>O5/O8</f>
-        <v>0.47415914684167348</v>
-      </c>
-      <c r="P9" s="104">
-        <f t="shared" ref="P9:Q9" si="3">P5/P8</f>
-        <v>0.47716535433070867</v>
-      </c>
-      <c r="Q9" s="104">
-        <f t="shared" si="3"/>
-        <v>0.47042828008157717</v>
-      </c>
-      <c r="R9" s="105">
-        <f>AVERAGE(O9:Q9)</f>
-        <v>0.47391759375131975</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="108">
-        <f>C6/C8</f>
-        <v>0.13863553447646845</v>
-      </c>
-      <c r="D10" s="109">
-        <f>D6/D8</f>
-        <v>0.13882097256180387</v>
-      </c>
-      <c r="E10" s="109">
-        <f t="shared" ref="E10" si="4">E6/E8</f>
-        <v>0.13880733944954129</v>
-      </c>
-      <c r="F10" s="110">
-        <f t="shared" ref="F10:F11" si="5">AVERAGE(C10:E10)</f>
-        <v>0.13875461549593784</v>
-      </c>
-      <c r="G10" s="108">
-        <f>G6/G8</f>
-        <v>0.24445936870382806</v>
-      </c>
-      <c r="H10" s="109">
-        <f t="shared" ref="H10:I10" si="6">H6/H8</f>
-        <v>0.24534574468085107</v>
-      </c>
-      <c r="I10" s="109">
-        <f t="shared" si="6"/>
-        <v>0.24315514993481094</v>
-      </c>
-      <c r="J10" s="110">
-        <f t="shared" ref="J10:J11" si="7">AVERAGE(G10:I10)</f>
-        <v>0.24432008777316336</v>
-      </c>
-      <c r="K10" s="108">
-        <f>K6/K8</f>
-        <v>0.26500389711613404</v>
-      </c>
-      <c r="L10" s="109">
-        <f t="shared" ref="L10:M10" si="8">L6/L8</f>
-        <v>0.26479514415781485</v>
-      </c>
-      <c r="M10" s="109">
-        <f t="shared" si="8"/>
-        <v>0.26391901663051337</v>
-      </c>
-      <c r="N10" s="110">
-        <f t="shared" ref="N10:N11" si="9">AVERAGE(K10:M10)</f>
-        <v>0.26457268596815409</v>
-      </c>
-      <c r="O10" s="111">
-        <f>O6/O8</f>
-        <v>0.2723543888433142</v>
-      </c>
-      <c r="P10" s="109">
-        <f t="shared" ref="P10:Q10" si="10">P6/P8</f>
-        <v>0.27165354330708663</v>
-      </c>
-      <c r="Q10" s="109">
-        <f t="shared" si="10"/>
-        <v>0.27260367097212779</v>
-      </c>
-      <c r="R10" s="110">
-        <f t="shared" ref="R10:R11" si="11">AVERAGE(O10:Q10)</f>
-        <v>0.27220386770750954</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="113">
-        <f>C7/C8</f>
-        <v>0.14930682232761766</v>
-      </c>
-      <c r="D11" s="114">
-        <f>D7/D8</f>
-        <v>0.14932536448428868</v>
-      </c>
-      <c r="E11" s="114">
-        <f t="shared" ref="E11" si="12">E7/E8</f>
-        <v>0.14917431192660552</v>
-      </c>
-      <c r="F11" s="115">
-        <f t="shared" si="5"/>
-        <v>0.1492688329128373</v>
-      </c>
-      <c r="G11" s="113">
-        <f>G7/G8</f>
-        <v>0.17461383478844864</v>
-      </c>
-      <c r="H11" s="114">
-        <f t="shared" ref="H11:I11" si="13">H7/H8</f>
-        <v>0.17553191489361702</v>
-      </c>
-      <c r="I11" s="114">
-        <f t="shared" si="13"/>
-        <v>0.17535853976531943</v>
-      </c>
-      <c r="J11" s="115">
-        <f t="shared" si="7"/>
-        <v>0.1751680964824617</v>
-      </c>
-      <c r="K11" s="113">
-        <f>K7/K8</f>
-        <v>0.18004676539360873</v>
-      </c>
-      <c r="L11" s="114">
-        <f t="shared" ref="L11:M11" si="14">L7/L8</f>
-        <v>0.18209408194233687</v>
-      </c>
-      <c r="M11" s="114">
-        <f t="shared" si="14"/>
-        <v>0.18510484454085321</v>
-      </c>
-      <c r="N11" s="115">
-        <f t="shared" si="9"/>
-        <v>0.18241523062559961</v>
-      </c>
-      <c r="O11" s="116">
-        <f>O7/O8</f>
-        <v>0.18211648892534865</v>
-      </c>
-      <c r="P11" s="114">
-        <f t="shared" ref="P11:Q11" si="15">P7/P8</f>
-        <v>0.18503937007874016</v>
-      </c>
-      <c r="Q11" s="114">
-        <f t="shared" si="15"/>
-        <v>0.19850441876274644</v>
-      </c>
-      <c r="R11" s="115">
-        <f t="shared" si="11"/>
-        <v>0.18855342592227842</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
-      <c r="C14" s="218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="218" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="219" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
-      <c r="C15" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="213"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="214"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="214"/>
-    </row>
-    <row r="19" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="215"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="102" t="e">
-        <f>C16/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="102" t="e">
-        <f t="shared" ref="D20:F20" si="16">D16/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="102" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="235" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="107" t="e">
-        <f>C17/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="107" t="e">
-        <f t="shared" ref="D21:F21" si="17">D17/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="107" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="236" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="112" t="e">
-        <f>C18/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="112" t="e">
-        <f t="shared" ref="D22:F22" si="18">D18/D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="112" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="237" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
-      <c r="C25" s="218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="218" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="219" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
-      <c r="C26" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="213"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="214"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="214"/>
-    </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="215"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="102" t="e">
-        <f>C27/C30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="102" t="e">
-        <f t="shared" ref="D31:F31" si="19">D27/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="102" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="235" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="107" t="e">
-        <f>C28/C30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="107" t="e">
-        <f t="shared" ref="D32:F32" si="20">D28/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="107" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="236" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="112" t="e">
-        <f>C29/C30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="112" t="e">
-        <f t="shared" ref="D33:F33" si="21">D29/D30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="112" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="237" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
-      <c r="C36" s="218" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="218" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="218" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="219" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
-      <c r="C37" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="213"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="214"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="214"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="215"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="102" t="e">
-        <f>C38/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D42" s="102" t="e">
-        <f t="shared" ref="D42:F42" si="22">D38/D41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="102" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="235" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="107" t="e">
-        <f>C39/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D43" s="107" t="e">
-        <f t="shared" ref="D43:F43" si="23">D39/D41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="107" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="236" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="112" t="e">
-        <f>C40/C41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D44" s="112" t="e">
-        <f t="shared" ref="D44:F44" si="24">D40/D41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="112" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="237" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -9516,7 +11576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF24656-488A-48A7-8F45-6758F83D09E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE6895-D064-4E08-B311-277FA135903C}">
   <dimension ref="B2:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9534,34 +11594,34 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="252"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="255" t="s">
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="255" t="s">
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="258" t="s">
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="260"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
@@ -9616,49 +11676,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="8">
-        <v>5891</v>
+        <v>8651</v>
       </c>
       <c r="D5" s="9">
-        <v>5897</v>
+        <v>8710</v>
       </c>
       <c r="E5" s="9">
-        <v>5892</v>
+        <v>8597</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="8">
-        <v>710</v>
+        <v>806</v>
       </c>
       <c r="H5" s="9">
-        <v>735</v>
+        <v>815</v>
       </c>
       <c r="I5" s="9">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="8">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="L5" s="9">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="M5" s="9">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="O5" s="12">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="P5" s="9">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="Q5" s="9">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>16</v>
@@ -9669,49 +11729,49 @@
         <v>19</v>
       </c>
       <c r="C6" s="5">
-        <v>5901</v>
+        <v>1520</v>
       </c>
       <c r="D6" s="3">
-        <v>5905</v>
+        <v>1533</v>
       </c>
       <c r="E6" s="3">
-        <v>5900</v>
+        <v>1513</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="5">
-        <v>502</v>
+        <v>364</v>
       </c>
       <c r="H6" s="3">
-        <v>524</v>
+        <v>369</v>
       </c>
       <c r="I6" s="3">
-        <v>534</v>
+        <v>373</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="L6" s="3">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="M6" s="3">
-        <v>424</v>
+        <v>365</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="13">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="P6" s="3">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="Q6" s="3">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>16</v>
@@ -9722,49 +11782,49 @@
         <v>20</v>
       </c>
       <c r="C7" s="5">
-        <v>4122</v>
+        <v>1637</v>
       </c>
       <c r="D7" s="3">
-        <v>4124</v>
+        <v>1649</v>
       </c>
       <c r="E7" s="3">
-        <v>4120</v>
+        <v>1626</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="5">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="H7" s="3">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="I7" s="3">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="5">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="L7" s="3">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M7" s="3">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O7" s="13">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="P7" s="3">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="3">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>16</v>
@@ -9775,259 +11835,259 @@
         <v>21</v>
       </c>
       <c r="C8" s="22">
-        <v>15360</v>
+        <v>10964</v>
       </c>
       <c r="D8" s="23">
-        <v>15366</v>
+        <v>11043</v>
       </c>
       <c r="E8" s="23">
-        <v>15359</v>
+        <v>10900</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="22">
-        <v>1630</v>
+        <v>1489</v>
       </c>
       <c r="H8" s="23">
-        <v>1691</v>
+        <v>1504</v>
       </c>
       <c r="I8" s="23">
-        <v>1722</v>
+        <v>1534</v>
       </c>
       <c r="J8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="22">
-        <v>1309</v>
+        <v>1283</v>
       </c>
       <c r="L8" s="23">
-        <v>1375</v>
+        <v>1318</v>
       </c>
       <c r="M8" s="23">
-        <v>1460</v>
+        <v>1383</v>
       </c>
       <c r="N8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="O8" s="26">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="P8" s="23">
-        <v>1298</v>
+        <v>1270</v>
       </c>
       <c r="Q8" s="23">
-        <v>1515</v>
+        <v>1471</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="103">
         <f>C5/C8</f>
-        <v>0.38352864583333335</v>
-      </c>
-      <c r="D9" s="119">
+        <v>0.78903684786574246</v>
+      </c>
+      <c r="D9" s="104">
         <f>D5/D8</f>
-        <v>0.38376936092672131</v>
-      </c>
-      <c r="E9" s="119">
+        <v>0.78873494521416276</v>
+      </c>
+      <c r="E9" s="104">
         <f t="shared" ref="E9" si="0">E5/E8</f>
-        <v>0.38361872517742041</v>
-      </c>
-      <c r="F9" s="120">
+        <v>0.78871559633027521</v>
+      </c>
+      <c r="F9" s="105">
         <f>AVERAGE(C9:E9)</f>
-        <v>0.38363891064582506</v>
-      </c>
-      <c r="G9" s="118">
+        <v>0.78882912980339348</v>
+      </c>
+      <c r="G9" s="103">
         <f>G5/G8</f>
-        <v>0.43558282208588955</v>
-      </c>
-      <c r="H9" s="119">
+        <v>0.54130288784419078</v>
+      </c>
+      <c r="H9" s="104">
         <f t="shared" ref="H9:I9" si="1">H5/H8</f>
-        <v>0.43465405085748077</v>
-      </c>
-      <c r="I9" s="119">
+        <v>0.54188829787234039</v>
+      </c>
+      <c r="I9" s="104">
         <f t="shared" si="1"/>
-        <v>0.43379790940766549</v>
-      </c>
-      <c r="J9" s="120">
+        <v>0.54628422425032597</v>
+      </c>
+      <c r="J9" s="105">
         <f>AVERAGE(G9:I9)</f>
-        <v>0.43467826078367855</v>
-      </c>
-      <c r="K9" s="118">
+        <v>0.54315846998895234</v>
+      </c>
+      <c r="K9" s="103">
         <f>K5/K8</f>
-        <v>0.4530175706646295</v>
-      </c>
-      <c r="L9" s="119">
+        <v>0.49181605611847234</v>
+      </c>
+      <c r="L9" s="104">
         <f t="shared" ref="L9:M9" si="2">L5/L8</f>
-        <v>0.45163636363636361</v>
-      </c>
-      <c r="M9" s="119">
+        <v>0.49468892261001518</v>
+      </c>
+      <c r="M9" s="104">
         <f t="shared" si="2"/>
-        <v>0.44657534246575342</v>
-      </c>
-      <c r="N9" s="120">
+        <v>0.49457700650759218</v>
+      </c>
+      <c r="N9" s="105">
         <f>AVERAGE(K9:M9)</f>
-        <v>0.45040975892224888</v>
-      </c>
-      <c r="O9" s="121">
+        <v>0.49369399507869322</v>
+      </c>
+      <c r="O9" s="106">
         <f>O5/O8</f>
-        <v>0.4576271186440678</v>
-      </c>
-      <c r="P9" s="119">
+        <v>0.47415914684167348</v>
+      </c>
+      <c r="P9" s="104">
         <f t="shared" ref="P9:Q9" si="3">P5/P8</f>
-        <v>0.45685670261941447</v>
-      </c>
-      <c r="Q9" s="119">
+        <v>0.47716535433070867</v>
+      </c>
+      <c r="Q9" s="104">
         <f t="shared" si="3"/>
-        <v>0.44554455445544555</v>
-      </c>
-      <c r="R9" s="120">
+        <v>0.47042828008157717</v>
+      </c>
+      <c r="R9" s="105">
         <f>AVERAGE(O9:Q9)</f>
-        <v>0.45334279190630927</v>
+        <v>0.47391759375131975</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="123">
+      <c r="C10" s="108">
         <f>C6/C8</f>
-        <v>0.38417968749999998</v>
-      </c>
-      <c r="D10" s="124">
+        <v>0.13863553447646845</v>
+      </c>
+      <c r="D10" s="109">
         <f>D6/D8</f>
-        <v>0.38428999088897564</v>
-      </c>
-      <c r="E10" s="124">
+        <v>0.13882097256180387</v>
+      </c>
+      <c r="E10" s="109">
         <f t="shared" ref="E10" si="4">E6/E8</f>
-        <v>0.38413959242138163</v>
-      </c>
-      <c r="F10" s="125">
+        <v>0.13880733944954129</v>
+      </c>
+      <c r="F10" s="110">
         <f t="shared" ref="F10:F11" si="5">AVERAGE(C10:E10)</f>
-        <v>0.38420309027011906</v>
-      </c>
-      <c r="G10" s="123">
+        <v>0.13875461549593784</v>
+      </c>
+      <c r="G10" s="108">
         <f>G6/G8</f>
-        <v>0.30797546012269938</v>
-      </c>
-      <c r="H10" s="124">
+        <v>0.24445936870382806</v>
+      </c>
+      <c r="H10" s="109">
         <f t="shared" ref="H10:I10" si="6">H6/H8</f>
-        <v>0.30987581312832646</v>
-      </c>
-      <c r="I10" s="124">
+        <v>0.24534574468085107</v>
+      </c>
+      <c r="I10" s="109">
         <f t="shared" si="6"/>
-        <v>0.31010452961672474</v>
-      </c>
-      <c r="J10" s="125">
+        <v>0.24315514993481094</v>
+      </c>
+      <c r="J10" s="110">
         <f t="shared" ref="J10:J11" si="7">AVERAGE(G10:I10)</f>
-        <v>0.30931860095591684</v>
-      </c>
-      <c r="K10" s="123">
+        <v>0.24432008777316336</v>
+      </c>
+      <c r="K10" s="108">
         <f>K6/K8</f>
-        <v>0.2880061115355233</v>
-      </c>
-      <c r="L10" s="124">
+        <v>0.26500389711613404</v>
+      </c>
+      <c r="L10" s="109">
         <f t="shared" ref="L10:M10" si="8">L6/L8</f>
-        <v>0.29018181818181821</v>
-      </c>
-      <c r="M10" s="124">
+        <v>0.26479514415781485</v>
+      </c>
+      <c r="M10" s="109">
         <f t="shared" si="8"/>
-        <v>0.29041095890410956</v>
-      </c>
-      <c r="N10" s="125">
+        <v>0.26391901663051337</v>
+      </c>
+      <c r="N10" s="110">
         <f t="shared" ref="N10:N11" si="9">AVERAGE(K10:M10)</f>
-        <v>0.28953296287381702</v>
-      </c>
-      <c r="O10" s="126">
+        <v>0.26457268596815409</v>
+      </c>
+      <c r="O10" s="111">
         <f>O6/O8</f>
-        <v>0.2824858757062147</v>
-      </c>
-      <c r="P10" s="124">
+        <v>0.2723543888433142</v>
+      </c>
+      <c r="P10" s="109">
         <f t="shared" ref="P10:Q10" si="10">P6/P8</f>
-        <v>0.28351309707241912</v>
-      </c>
-      <c r="Q10" s="124">
+        <v>0.27165354330708663</v>
+      </c>
+      <c r="Q10" s="109">
         <f t="shared" si="10"/>
-        <v>0.2858085808580858</v>
-      </c>
-      <c r="R10" s="125">
+        <v>0.27260367097212779</v>
+      </c>
+      <c r="R10" s="110">
         <f t="shared" ref="R10:R11" si="11">AVERAGE(O10:Q10)</f>
-        <v>0.28393585121223991</v>
+        <v>0.27220386770750954</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="128">
+      <c r="C11" s="113">
         <f>C7/C8</f>
-        <v>0.26835937500000001</v>
-      </c>
-      <c r="D11" s="129">
+        <v>0.14930682232761766</v>
+      </c>
+      <c r="D11" s="114">
         <f>D7/D8</f>
-        <v>0.26838474554210595</v>
-      </c>
-      <c r="E11" s="129">
+        <v>0.14932536448428868</v>
+      </c>
+      <c r="E11" s="114">
         <f t="shared" ref="E11" si="12">E7/E8</f>
-        <v>0.26824663064001564</v>
-      </c>
-      <c r="F11" s="130">
+        <v>0.14917431192660552</v>
+      </c>
+      <c r="F11" s="115">
         <f t="shared" si="5"/>
-        <v>0.26833025039404051</v>
-      </c>
-      <c r="G11" s="128">
+        <v>0.1492688329128373</v>
+      </c>
+      <c r="G11" s="113">
         <f>G7/G8</f>
-        <v>0.21349693251533741</v>
-      </c>
-      <c r="H11" s="129">
+        <v>0.17461383478844864</v>
+      </c>
+      <c r="H11" s="114">
         <f t="shared" ref="H11:I11" si="13">H7/H8</f>
-        <v>0.21643997634535778</v>
-      </c>
-      <c r="I11" s="129">
+        <v>0.17553191489361702</v>
+      </c>
+      <c r="I11" s="114">
         <f t="shared" si="13"/>
-        <v>0.2183507549361208</v>
-      </c>
-      <c r="J11" s="130">
+        <v>0.17535853976531943</v>
+      </c>
+      <c r="J11" s="115">
         <f t="shared" si="7"/>
-        <v>0.216095887932272</v>
-      </c>
-      <c r="K11" s="128">
+        <v>0.1751680964824617</v>
+      </c>
+      <c r="K11" s="113">
         <f>K7/K8</f>
-        <v>0.19480519480519481</v>
-      </c>
-      <c r="L11" s="129">
+        <v>0.18004676539360873</v>
+      </c>
+      <c r="L11" s="114">
         <f t="shared" ref="L11:M11" si="14">L7/L8</f>
-        <v>0.2</v>
-      </c>
-      <c r="M11" s="129">
+        <v>0.18209408194233687</v>
+      </c>
+      <c r="M11" s="114">
         <f t="shared" si="14"/>
-        <v>0.20547945205479451</v>
-      </c>
-      <c r="N11" s="130">
+        <v>0.18510484454085321</v>
+      </c>
+      <c r="N11" s="115">
         <f t="shared" si="9"/>
-        <v>0.20009488228666314</v>
-      </c>
-      <c r="O11" s="131">
+        <v>0.18241523062559961</v>
+      </c>
+      <c r="O11" s="116">
         <f>O7/O8</f>
-        <v>0.18886198547215496</v>
-      </c>
-      <c r="P11" s="129">
+        <v>0.18211648892534865</v>
+      </c>
+      <c r="P11" s="114">
         <f t="shared" ref="P11:Q11" si="15">P7/P8</f>
-        <v>0.19337442218798151</v>
-      </c>
-      <c r="Q11" s="129">
+        <v>0.18503937007874016</v>
+      </c>
+      <c r="Q11" s="114">
         <f t="shared" si="15"/>
-        <v>0.20990099009900989</v>
-      </c>
-      <c r="R11" s="130">
+        <v>0.19850441876274644</v>
+      </c>
+      <c r="R11" s="115">
         <f t="shared" si="11"/>
-        <v>0.19737913258638209</v>
+        <v>0.18855342592227842</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10036,7 +12096,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="218" t="s">
         <v>13</v>
       </c>
@@ -10051,7 +12111,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="216" t="s">
         <v>10</v>
       </c>
@@ -10102,64 +12162,64 @@
       <c r="F19" s="215"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="117" t="e">
+      <c r="C20" s="102" t="e">
         <f>C16/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="117" t="e">
+      <c r="D20" s="102" t="e">
         <f t="shared" ref="D20:F20" si="16">D16/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="117" t="e">
+      <c r="E20" s="102" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="238" t="e">
+      <c r="F20" s="235" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="122" t="e">
+      <c r="C21" s="107" t="e">
         <f>C17/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="122" t="e">
+      <c r="D21" s="107" t="e">
         <f t="shared" ref="D21:F21" si="17">D17/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="122" t="e">
+      <c r="E21" s="107" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="239" t="e">
+      <c r="F21" s="236" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="127" t="s">
+      <c r="B22" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="127" t="e">
+      <c r="C22" s="112" t="e">
         <f>C18/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="127" t="e">
+      <c r="D22" s="112" t="e">
         <f t="shared" ref="D22:F22" si="18">D18/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="127" t="e">
+      <c r="E22" s="112" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="240" t="e">
+      <c r="F22" s="237" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
@@ -10170,7 +12230,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="218" t="s">
         <v>13</v>
       </c>
@@ -10185,7 +12245,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="216" t="s">
         <v>10</v>
       </c>
@@ -10236,64 +12296,64 @@
       <c r="F30" s="215"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="117" t="e">
+      <c r="C31" s="102" t="e">
         <f>C27/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="117" t="e">
+      <c r="D31" s="102" t="e">
         <f t="shared" ref="D31:F31" si="19">D27/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="117" t="e">
+      <c r="E31" s="102" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="238" t="e">
+      <c r="F31" s="235" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="122" t="e">
+      <c r="C32" s="107" t="e">
         <f>C28/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="122" t="e">
+      <c r="D32" s="107" t="e">
         <f t="shared" ref="D32:F32" si="20">D28/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="122" t="e">
+      <c r="E32" s="107" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="239" t="e">
+      <c r="F32" s="236" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="127" t="s">
+      <c r="B33" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="127" t="e">
+      <c r="C33" s="112" t="e">
         <f>C29/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="127" t="e">
+      <c r="D33" s="112" t="e">
         <f t="shared" ref="D33:F33" si="21">D29/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="127" t="e">
+      <c r="E33" s="112" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="240" t="e">
+      <c r="F33" s="237" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -10304,7 +12364,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="218" t="s">
         <v>13</v>
       </c>
@@ -10319,7 +12379,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="216" t="s">
         <v>10</v>
       </c>
@@ -10370,64 +12430,64 @@
       <c r="F41" s="215"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="117" t="e">
+      <c r="C42" s="102" t="e">
         <f>C38/C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="117" t="e">
+      <c r="D42" s="102" t="e">
         <f t="shared" ref="D42:F42" si="22">D38/D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="117" t="e">
+      <c r="E42" s="102" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="238" t="e">
+      <c r="F42" s="235" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="122" t="e">
+      <c r="C43" s="107" t="e">
         <f>C39/C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="122" t="e">
+      <c r="D43" s="107" t="e">
         <f t="shared" ref="D43:F43" si="23">D39/D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="122" t="e">
+      <c r="E43" s="107" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="239" t="e">
+      <c r="F43" s="236" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="127" t="s">
+      <c r="B44" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="127" t="e">
+      <c r="C44" s="112" t="e">
         <f>C40/C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="127" t="e">
+      <c r="D44" s="112" t="e">
         <f t="shared" ref="D44:F44" si="24">D40/D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="127" t="e">
+      <c r="E44" s="112" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="240" t="e">
+      <c r="F44" s="237" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
@@ -10448,7 +12508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1750BB54-30F9-4922-99CE-D8BC68E74204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF24656-488A-48A7-8F45-6758F83D09E3}">
   <dimension ref="B2:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10466,34 +12526,34 @@
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="252"/>
-      <c r="C3" s="255" t="s">
+      <c r="B3" s="256"/>
+      <c r="C3" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="255" t="s">
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="255" t="s">
+      <c r="H3" s="259"/>
+      <c r="I3" s="259"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="258" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="258" t="s">
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
-      <c r="R3" s="257"/>
+      <c r="P3" s="259"/>
+      <c r="Q3" s="259"/>
+      <c r="R3" s="260"/>
     </row>
     <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="253"/>
+      <c r="B4" s="257"/>
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
@@ -10548,49 +12608,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="8">
-        <v>9683</v>
+        <v>5891</v>
       </c>
       <c r="D5" s="9">
-        <v>9615</v>
+        <v>5897</v>
       </c>
       <c r="E5" s="9">
-        <v>9461</v>
+        <v>5892</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="8">
-        <v>803</v>
+        <v>710</v>
       </c>
       <c r="H5" s="9">
-        <v>872</v>
+        <v>735</v>
       </c>
       <c r="I5" s="9">
-        <v>870</v>
+        <v>747</v>
       </c>
       <c r="J5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="8">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="L5" s="9">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="M5" s="9">
-        <v>712</v>
+        <v>652</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="O5" s="12">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="P5" s="9">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="Q5" s="9">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>16</v>
@@ -10601,49 +12661,49 @@
         <v>19</v>
       </c>
       <c r="C6" s="5">
-        <v>7274</v>
+        <v>5901</v>
       </c>
       <c r="D6" s="3">
-        <v>7219</v>
+        <v>5905</v>
       </c>
       <c r="E6" s="3">
-        <v>7096</v>
+        <v>5900</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="5">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="H6" s="3">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="I6" s="3">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="5">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="L6" s="3">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="M6" s="3">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="13">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P6" s="3">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="3">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>16</v>
@@ -10654,49 +12714,49 @@
         <v>20</v>
       </c>
       <c r="C7" s="5">
-        <v>5251</v>
+        <v>4122</v>
       </c>
       <c r="D7" s="3">
-        <v>5209</v>
+        <v>4124</v>
       </c>
       <c r="E7" s="3">
-        <v>5117</v>
+        <v>4120</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="5">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="H7" s="3">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="I7" s="3">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="5">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="L7" s="3">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="M7" s="3">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O7" s="13">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P7" s="3">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="3">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>16</v>
@@ -10707,259 +12767,259 @@
         <v>21</v>
       </c>
       <c r="C8" s="22">
-        <v>21236</v>
+        <v>15360</v>
       </c>
       <c r="D8" s="23">
-        <v>21079</v>
+        <v>15366</v>
       </c>
       <c r="E8" s="23">
-        <v>20724</v>
+        <v>15359</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="22">
-        <v>1759</v>
+        <v>1630</v>
       </c>
       <c r="H8" s="23">
-        <v>1908</v>
+        <v>1691</v>
       </c>
       <c r="I8" s="23">
-        <v>1908</v>
+        <v>1722</v>
       </c>
       <c r="J8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="22">
-        <v>1378</v>
+        <v>1309</v>
       </c>
       <c r="L8" s="23">
-        <v>1447</v>
+        <v>1375</v>
       </c>
       <c r="M8" s="23">
-        <v>1557</v>
+        <v>1460</v>
       </c>
       <c r="N8" s="25" t="s">
         <v>16</v>
       </c>
       <c r="O8" s="26">
-        <v>1266</v>
+        <v>1239</v>
       </c>
       <c r="P8" s="23">
-        <v>1330</v>
+        <v>1298</v>
       </c>
       <c r="Q8" s="23">
-        <v>1494</v>
+        <v>1515</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="133">
+      <c r="C9" s="118">
         <f>C5/C8</f>
-        <v>0.45597099265398378</v>
-      </c>
-      <c r="D9" s="134">
+        <v>0.38352864583333335</v>
+      </c>
+      <c r="D9" s="119">
         <f>D5/D8</f>
-        <v>0.456141183168082</v>
-      </c>
-      <c r="E9" s="134">
+        <v>0.38376936092672131</v>
+      </c>
+      <c r="E9" s="119">
         <f t="shared" ref="E9" si="0">E5/E8</f>
-        <v>0.45652383709708549</v>
-      </c>
-      <c r="F9" s="135">
+        <v>0.38361872517742041</v>
+      </c>
+      <c r="F9" s="120">
         <f>AVERAGE(C9:E9)</f>
-        <v>0.45621200430638376</v>
-      </c>
-      <c r="G9" s="133">
+        <v>0.38363891064582506</v>
+      </c>
+      <c r="G9" s="118">
         <f>G5/G8</f>
-        <v>0.45650938032973282</v>
-      </c>
-      <c r="H9" s="134">
+        <v>0.43558282208588955</v>
+      </c>
+      <c r="H9" s="119">
         <f t="shared" ref="H9:I9" si="1">H5/H8</f>
-        <v>0.45702306079664567</v>
-      </c>
-      <c r="I9" s="134">
+        <v>0.43465405085748077</v>
+      </c>
+      <c r="I9" s="119">
         <f t="shared" si="1"/>
-        <v>0.45597484276729561</v>
-      </c>
-      <c r="J9" s="135">
+        <v>0.43379790940766549</v>
+      </c>
+      <c r="J9" s="120">
         <f>AVERAGE(G9:I9)</f>
-        <v>0.45650242796455803</v>
-      </c>
-      <c r="K9" s="133">
+        <v>0.43467826078367855</v>
+      </c>
+      <c r="K9" s="118">
         <f>K5/K8</f>
-        <v>0.4593613933236575</v>
-      </c>
-      <c r="L9" s="134">
+        <v>0.4530175706646295</v>
+      </c>
+      <c r="L9" s="119">
         <f t="shared" ref="L9:M9" si="2">L5/L8</f>
-        <v>0.46026261230131305</v>
-      </c>
-      <c r="M9" s="134">
+        <v>0.45163636363636361</v>
+      </c>
+      <c r="M9" s="119">
         <f t="shared" si="2"/>
-        <v>0.45728965960179835</v>
-      </c>
-      <c r="N9" s="135">
+        <v>0.44657534246575342</v>
+      </c>
+      <c r="N9" s="120">
         <f>AVERAGE(K9:M9)</f>
-        <v>0.4589712217422563</v>
-      </c>
-      <c r="O9" s="136">
+        <v>0.45040975892224888</v>
+      </c>
+      <c r="O9" s="121">
         <f>O5/O8</f>
-        <v>0.46129541864139023</v>
-      </c>
-      <c r="P9" s="134">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="P9" s="119">
         <f t="shared" ref="P9:Q9" si="3">P5/P8</f>
-        <v>0.46165413533834587</v>
-      </c>
-      <c r="Q9" s="134">
+        <v>0.45685670261941447</v>
+      </c>
+      <c r="Q9" s="119">
         <f t="shared" si="3"/>
-        <v>0.45381526104417669</v>
-      </c>
-      <c r="R9" s="135">
+        <v>0.44554455445544555</v>
+      </c>
+      <c r="R9" s="120">
         <f>AVERAGE(O9:Q9)</f>
-        <v>0.45892160500797097</v>
+        <v>0.45334279190630927</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="123">
         <f>C6/C8</f>
-        <v>0.34253155019777737</v>
-      </c>
-      <c r="D10" s="139">
+        <v>0.38417968749999998</v>
+      </c>
+      <c r="D10" s="124">
         <f>D6/D8</f>
-        <v>0.34247355187627498</v>
-      </c>
-      <c r="E10" s="139">
+        <v>0.38428999088897564</v>
+      </c>
+      <c r="E10" s="124">
         <f t="shared" ref="E10" si="4">E6/E8</f>
-        <v>0.3424049411310558</v>
-      </c>
-      <c r="F10" s="140">
+        <v>0.38413959242138163</v>
+      </c>
+      <c r="F10" s="125">
         <f t="shared" ref="F10:F11" si="5">AVERAGE(C10:E10)</f>
-        <v>0.34247001440170272</v>
-      </c>
-      <c r="G10" s="138">
+        <v>0.38420309027011906</v>
+      </c>
+      <c r="G10" s="123">
         <f>G6/G8</f>
-        <v>0.29960204661739626</v>
-      </c>
-      <c r="H10" s="139">
+        <v>0.30797546012269938</v>
+      </c>
+      <c r="H10" s="124">
         <f t="shared" ref="H10:I10" si="6">H6/H8</f>
-        <v>0.30188679245283018</v>
-      </c>
-      <c r="I10" s="139">
+        <v>0.30987581312832646</v>
+      </c>
+      <c r="I10" s="124">
         <f t="shared" si="6"/>
-        <v>0.30083857442348011</v>
-      </c>
-      <c r="J10" s="140">
+        <v>0.31010452961672474</v>
+      </c>
+      <c r="J10" s="125">
         <f t="shared" ref="J10:J11" si="7">AVERAGE(G10:I10)</f>
-        <v>0.30077580449790214</v>
-      </c>
-      <c r="K10" s="138">
+        <v>0.30931860095591684</v>
+      </c>
+      <c r="K10" s="123">
         <f>K6/K8</f>
-        <v>0.28664731494920176</v>
-      </c>
-      <c r="L10" s="139">
+        <v>0.2880061115355233</v>
+      </c>
+      <c r="L10" s="124">
         <f t="shared" ref="L10:M10" si="8">L6/L8</f>
-        <v>0.28749136143745679</v>
-      </c>
-      <c r="M10" s="139">
+        <v>0.29018181818181821</v>
+      </c>
+      <c r="M10" s="124">
         <f t="shared" si="8"/>
-        <v>0.28837508028259473</v>
-      </c>
-      <c r="N10" s="140">
+        <v>0.29041095890410956</v>
+      </c>
+      <c r="N10" s="125">
         <f t="shared" ref="N10:N11" si="9">AVERAGE(K10:M10)</f>
-        <v>0.28750458555641772</v>
-      </c>
-      <c r="O10" s="141">
+        <v>0.28953296287381702</v>
+      </c>
+      <c r="O10" s="126">
         <f>O6/O8</f>
-        <v>0.28120063191153238</v>
-      </c>
-      <c r="P10" s="139">
+        <v>0.2824858757062147</v>
+      </c>
+      <c r="P10" s="124">
         <f t="shared" ref="P10:Q10" si="10">P6/P8</f>
-        <v>0.28270676691729324</v>
-      </c>
-      <c r="Q10" s="139">
+        <v>0.28351309707241912</v>
+      </c>
+      <c r="Q10" s="124">
         <f t="shared" si="10"/>
-        <v>0.28380187416331992</v>
-      </c>
-      <c r="R10" s="140">
+        <v>0.2858085808580858</v>
+      </c>
+      <c r="R10" s="125">
         <f t="shared" ref="R10:R11" si="11">AVERAGE(O10:Q10)</f>
-        <v>0.28256975766404852</v>
+        <v>0.28393585121223991</v>
       </c>
     </row>
     <row r="11" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="128">
         <f>C7/C8</f>
-        <v>0.24726878884912412</v>
-      </c>
-      <c r="D11" s="144">
+        <v>0.26835937500000001</v>
+      </c>
+      <c r="D11" s="129">
         <f>D7/D8</f>
-        <v>0.24711798472413302</v>
-      </c>
-      <c r="E11" s="144">
+        <v>0.26838474554210595</v>
+      </c>
+      <c r="E11" s="129">
         <f t="shared" ref="E11" si="12">E7/E8</f>
-        <v>0.24691179309013703</v>
-      </c>
-      <c r="F11" s="145">
+        <v>0.26824663064001564</v>
+      </c>
+      <c r="F11" s="130">
         <f t="shared" si="5"/>
-        <v>0.24709952222113138</v>
-      </c>
-      <c r="G11" s="143">
+        <v>0.26833025039404051</v>
+      </c>
+      <c r="G11" s="128">
         <f>G7/G8</f>
-        <v>0.21034678794769757</v>
-      </c>
-      <c r="H11" s="144">
+        <v>0.21349693251533741</v>
+      </c>
+      <c r="H11" s="129">
         <f t="shared" ref="H11:I11" si="13">H7/H8</f>
-        <v>0.21488469601677149</v>
-      </c>
-      <c r="I11" s="144">
+        <v>0.21643997634535778</v>
+      </c>
+      <c r="I11" s="129">
         <f t="shared" si="13"/>
-        <v>0.21593291404612158</v>
-      </c>
-      <c r="J11" s="145">
+        <v>0.2183507549361208</v>
+      </c>
+      <c r="J11" s="130">
         <f t="shared" si="7"/>
-        <v>0.21372146600353023</v>
-      </c>
-      <c r="K11" s="143">
+        <v>0.216095887932272</v>
+      </c>
+      <c r="K11" s="128">
         <f>K7/K8</f>
-        <v>0.19593613933236576</v>
-      </c>
-      <c r="L11" s="144">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="L11" s="129">
         <f t="shared" ref="L11:M11" si="14">L7/L8</f>
-        <v>0.19972356599861782</v>
-      </c>
-      <c r="M11" s="144">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="129">
         <f t="shared" si="14"/>
-        <v>0.20616570327552985</v>
-      </c>
-      <c r="N11" s="145">
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="N11" s="130">
         <f t="shared" si="9"/>
-        <v>0.20060846953550449</v>
-      </c>
-      <c r="O11" s="146">
+        <v>0.20009488228666314</v>
+      </c>
+      <c r="O11" s="131">
         <f>O7/O8</f>
-        <v>0.1895734597156398</v>
-      </c>
-      <c r="P11" s="144">
+        <v>0.18886198547215496</v>
+      </c>
+      <c r="P11" s="129">
         <f t="shared" ref="P11:Q11" si="15">P7/P8</f>
-        <v>0.19398496240601504</v>
-      </c>
-      <c r="Q11" s="144">
+        <v>0.19337442218798151</v>
+      </c>
+      <c r="Q11" s="129">
         <f t="shared" si="15"/>
-        <v>0.20548862115127176</v>
-      </c>
-      <c r="R11" s="145">
+        <v>0.20990099009900989</v>
+      </c>
+      <c r="R11" s="130">
         <f t="shared" si="11"/>
-        <v>0.19634901442430885</v>
+        <v>0.19737913258638209</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10968,7 +13028,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="252"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="218" t="s">
         <v>13</v>
       </c>
@@ -10983,7 +13043,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="253"/>
+      <c r="B15" s="257"/>
       <c r="C15" s="216" t="s">
         <v>10</v>
       </c>
@@ -11034,64 +13094,64 @@
       <c r="F19" s="215"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="132" t="e">
+      <c r="C20" s="117" t="e">
         <f>C16/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="132" t="e">
+      <c r="D20" s="117" t="e">
         <f t="shared" ref="D20:F20" si="16">D16/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="132" t="e">
+      <c r="E20" s="117" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="241" t="e">
+      <c r="F20" s="238" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="137" t="e">
+      <c r="C21" s="122" t="e">
         <f>C17/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="137" t="e">
+      <c r="D21" s="122" t="e">
         <f t="shared" ref="D21:F21" si="17">D17/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="137" t="e">
+      <c r="E21" s="122" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="242" t="e">
+      <c r="F21" s="239" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="142" t="e">
+      <c r="C22" s="127" t="e">
         <f>C18/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="142" t="e">
+      <c r="D22" s="127" t="e">
         <f t="shared" ref="D22:F22" si="18">D18/D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="142" t="e">
+      <c r="E22" s="127" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="243" t="e">
+      <c r="F22" s="240" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
@@ -11102,7 +13162,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252"/>
+      <c r="B25" s="256"/>
       <c r="C25" s="218" t="s">
         <v>13</v>
       </c>
@@ -11117,7 +13177,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="253"/>
+      <c r="B26" s="257"/>
       <c r="C26" s="216" t="s">
         <v>10</v>
       </c>
@@ -11168,64 +13228,64 @@
       <c r="F30" s="215"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="132" t="e">
+      <c r="C31" s="117" t="e">
         <f>C27/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="132" t="e">
+      <c r="D31" s="117" t="e">
         <f t="shared" ref="D31:F31" si="19">D27/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="132" t="e">
+      <c r="E31" s="117" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="241" t="e">
+      <c r="F31" s="238" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="137" t="e">
+      <c r="C32" s="122" t="e">
         <f>C28/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="137" t="e">
+      <c r="D32" s="122" t="e">
         <f t="shared" ref="D32:F32" si="20">D28/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="137" t="e">
+      <c r="E32" s="122" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="242" t="e">
+      <c r="F32" s="239" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="142" t="s">
+      <c r="B33" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="142" t="e">
+      <c r="C33" s="127" t="e">
         <f>C29/C30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="142" t="e">
+      <c r="D33" s="127" t="e">
         <f t="shared" ref="D33:F33" si="21">D29/D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="142" t="e">
+      <c r="E33" s="127" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="243" t="e">
+      <c r="F33" s="240" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
@@ -11236,7 +13296,7 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="252"/>
+      <c r="B36" s="256"/>
       <c r="C36" s="218" t="s">
         <v>13</v>
       </c>
@@ -11251,7 +13311,7 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="253"/>
+      <c r="B37" s="257"/>
       <c r="C37" s="216" t="s">
         <v>10</v>
       </c>
@@ -11302,64 +13362,64 @@
       <c r="F41" s="215"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="132" t="e">
+      <c r="C42" s="117" t="e">
         <f>C38/C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="132" t="e">
+      <c r="D42" s="117" t="e">
         <f t="shared" ref="D42:F42" si="22">D38/D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="132" t="e">
+      <c r="E42" s="117" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="241" t="e">
+      <c r="F42" s="238" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="137" t="s">
+      <c r="B43" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="137" t="e">
+      <c r="C43" s="122" t="e">
         <f>C39/C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D43" s="137" t="e">
+      <c r="D43" s="122" t="e">
         <f t="shared" ref="D43:F43" si="23">D39/D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="137" t="e">
+      <c r="E43" s="122" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="242" t="e">
+      <c r="F43" s="239" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="142" t="e">
+      <c r="C44" s="127" t="e">
         <f>C40/C41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="142" t="e">
+      <c r="D44" s="127" t="e">
         <f t="shared" ref="D44:F44" si="24">D40/D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="142" t="e">
+      <c r="E44" s="127" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="243" t="e">
+      <c r="F44" s="240" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
